--- a/app/app/nbi_search/data/nbi_output.xlsx
+++ b/app/app/nbi_search/data/nbi_output.xlsx
@@ -1053,12 +1053,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>STT005</t>
+          <t>000328</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1078,43 +1078,43 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>00031</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>030</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>'TURPENTINE RUN'</t>
+          <t>'MORTAR CREEK'</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>'ROUTE 32'</t>
+          <t>'US 31'</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>'.5 MILES FROM RAPHUNE HIL'</t>
+          <t>'15.0 MI N OF PRATTVILLE'</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>329.233</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -1132,21 +1132,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>000AL00030</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>18195395</t>
+          <t>32392160</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>064530532</t>
+          <t>086292004</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>76</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -1166,12 +1174,12 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>06</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1186,22 +1194,22 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1211,7 +1219,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -1221,22 +1229,22 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -1281,7 +1289,7 @@
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>04</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
@@ -1296,7 +1304,7 @@
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
@@ -1306,17 +1314,17 @@
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
@@ -1331,12 +1339,12 @@
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
@@ -1371,85 +1379,97 @@
       </c>
       <c r="BO2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BP2" t="inlineStr">
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>54.6</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>32.7</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
+      <c r="CA2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="CB2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW2" t="inlineStr">
-        <is>
-          <t>32.7</t>
-        </is>
-      </c>
-      <c r="BX2" t="inlineStr">
+      <c r="CC2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="BY2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BZ2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>58.9</t>
+        </is>
+      </c>
       <c r="CG2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>721</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
@@ -1477,17 +1497,17 @@
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>121</t>
         </is>
       </c>
       <c r="CQ2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="CR2" t="inlineStr">
@@ -1496,10 +1516,14 @@
         </is>
       </c>
       <c r="CS2" t="inlineStr"/>
-      <c r="CT2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CU2" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">_              </t>
         </is>
       </c>
       <c r="CV2" t="inlineStr">
@@ -1528,82 +1552,90 @@
           <t>0</t>
         </is>
       </c>
-      <c r="DB2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
       <c r="DC2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>4380</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="DD2" t="inlineStr">
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="DE2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DF2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="DI2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="DJ2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="DK2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="DL2" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="DM2" t="inlineStr">
-        <is>
-          <t>2029</t>
-        </is>
-      </c>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="DP2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="DQ2" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DR2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>101.65</t>
+          <t>458.72</t>
         </is>
       </c>
     </row>

--- a/app/app/nbi_search/data/nbi_output.xlsx
+++ b/app/app/nbi_search/data/nbi_output.xlsx
@@ -1053,12 +1053,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000328</t>
+          <t>ADA05.5-086</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00031</t>
+          <t>00000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1103,28 +1103,28 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>'MORTAR CREEK'</t>
+          <t>'HOFFMAN DRAINAGE'</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>'US 31'</t>
+          <t>'STEELE STREET'</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>'15.0 MI N OF PRATTVILLE'</t>
+          <t>'INTERSECT STEELE/86TH'</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>99.99</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>329.233</t>
+          <t>1.621</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>000AL00030</t>
+          <t>001-0-2013</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>32392160</t>
+          <t>39510870</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>086292004</t>
+          <t>104565840</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -1164,22 +1164,22 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1194,282 +1194,270 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>3410</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>23.2</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>45.7</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>35.3</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>99.99</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>54.6</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BW2" t="inlineStr">
-        <is>
-          <t>32.7</t>
-        </is>
-      </c>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BY2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BZ2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="CE2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CF2" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>122</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
@@ -1495,26 +1483,10 @@
       <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr">
-        <is>
-          <t>1212</t>
-        </is>
-      </c>
-      <c r="CP2" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="CQ2" t="inlineStr">
-        <is>
-          <t>1333</t>
-        </is>
-      </c>
-      <c r="CR2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr">
         <is>
@@ -1554,12 +1526,12 @@
       </c>
       <c r="DB2" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>0</t>
         </is>
       </c>
       <c r="DC2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="DD2" t="inlineStr">
@@ -1569,17 +1541,17 @@
       </c>
       <c r="DE2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="DF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N</t>
         </is>
       </c>
       <c r="DG2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="DH2" t="inlineStr">
@@ -1600,12 +1572,12 @@
       </c>
       <c r="DL2" t="inlineStr">
         <is>
-          <t>4380</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="DM2" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="DN2" t="inlineStr">
@@ -1620,22 +1592,22 @@
       </c>
       <c r="DP2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="DR2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>458.72</t>
+          <t>153.12</t>
         </is>
       </c>
     </row>

--- a/app/app/nbi_search/data/nbi_output.xlsx
+++ b/app/app/nbi_search/data/nbi_output.xlsx
@@ -1053,12 +1053,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADA05.5-086</t>
+          <t>000000000005361</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1078,63 +1078,63 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>00060</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>'HOFFMAN DRAINAGE'</t>
+          <t>'LARGO CREEK'</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>'STEELE STREET'</t>
+          <t>'US-60'</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>'INTERSECT STEELE/86TH'</t>
+          <t>'0.1 MI W OF JCT NM-32'</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>30.45</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.621</t>
+          <t>54.002</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>001-0-2013</t>
+          <t>0000US0060</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1144,325 +1144,329 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>39510870</t>
+          <t>34203766</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>104565840</t>
+          <t>108302445</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>15.5</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>15.6</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>37.3</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>23.2</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>30.45</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
         <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>45.7</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BW2" t="inlineStr">
-        <is>
-          <t>35.3</t>
-        </is>
-      </c>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="BY2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="BZ2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CG2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>319</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="CI2" t="inlineStr">
@@ -1488,14 +1492,10 @@
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="inlineStr"/>
-      <c r="CT2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr">
         <is>
-          <t xml:space="preserve">_              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="CV2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="DA2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="DD2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>N</t>
         </is>
       </c>
       <c r="DE2" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="DG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="DH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="DI2" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="DL2" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>730</t>
         </is>
       </c>
       <c r="DM2" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="DN2" t="inlineStr">
@@ -1592,22 +1592,22 @@
       </c>
       <c r="DP2" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>35</t>
         </is>
       </c>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="DR2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>153.12</t>
+          <t>807.55</t>
         </is>
       </c>
     </row>
